--- a/ACME_WorkItem_Extraction/Files/Work_Item_Details.xlsx
+++ b/ACME_WorkItem_Extraction/Files/Work_Item_Details.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Punam\Documents\UiPath\ACME_WorkItem_Extraction\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Punam\Documents\UiPath\ACME_Website_Assignments\ACME_WorkItem_Extraction\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808A5CB5-6729-4703-9500-B09FAD3CB05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922372EB-FE14-4B06-BB94-8C990063788C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="1140" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,7 +463,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
